--- a/ExperimentResult/TS/ts-AB20-ar3.xlsx
+++ b/ExperimentResult/TS/ts-AB20-ar3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22560" windowHeight="11120"/>
+    <workbookView windowWidth="21710" windowHeight="11120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>实验次数</t>
   </si>
@@ -237,6 +237,36 @@
   </si>
   <si>
     <t>平均值</t>
+  </si>
+  <si>
+    <t>[ 6, 3,20,15, 2, 8, 7,14,10, 5, 4,12, 9,19,13,17,18, 1,11,16]</t>
+  </si>
+  <si>
+    <t>[0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,0.,1.,0.,1.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 6, 7, 8,20, 4, 2, 5,13,19, 3,15,10,14, 9,12,18,17, 1,11,16]</t>
+  </si>
+  <si>
+    <t>[0.,0.,0.,1.,0.,0.,0.,1.,0.,0.,1.,0.,0.,1.,0.,0.,0.,1.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[20, 2, 6, 1, 8, 7, 4, 9, 5, 3,19,15,14,10,12,13,18,17,11,16]</t>
+  </si>
+  <si>
+    <t>[ 5, 1, 6, 2, 4, 7, 8,20,19, 9, 3,15,13,10,14,12,17,16,18,11]</t>
+  </si>
+  <si>
+    <t>[0.,0.,1.,0.,0.,0.,0.,1.,0.,0.,1.,0.,0.,0.,0.,1.,0.,1.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[11,16,18, 1,15,13,17,14,12, 9,10,19, 4, 3, 7, 8, 2, 6, 5,20]</t>
+  </si>
+  <si>
+    <t>[0.,0.,1.,0.,0.,0.,1.,0.,0.,1.,0.,0.,1.,0.,0.,0.,1.,0.,0.,1.]</t>
+  </si>
+  <si>
+    <t>[ 1,20, 5,15, 7, 8, 2,14, 9,10, 4,13, 3,19, 6,17,18,12,16,11]</t>
   </si>
 </sst>
 </file>
@@ -250,7 +280,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,13 +291,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -735,148 +758,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1232,18 +1255,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="3" width="21.9090909090909"/>
+    <col min="2" max="3" width="21.9090909090909" customWidth="1"/>
     <col min="8" max="8" width="50.7272727272727" customWidth="1"/>
     <col min="9" max="9" width="47.9090909090909" customWidth="1"/>
-    <col min="10" max="10" width="12.8181818181818"/>
+    <col min="10" max="10" width="12.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2211,10 +2234,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>45557.8220945625</v>
+        <v>45557.8220945602</v>
       </c>
       <c r="C31" s="2">
-        <v>45557.8220945625</v>
+        <v>45557.8220945602</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2263,6 +2286,225 @@
       <c r="J34">
         <f>AVERAGE(J2:J31)</f>
         <v>3655.98872029058</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45571.674972037</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45571.674972037</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35">
+        <v>100000</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35">
+        <v>3749.95274537037</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45571.7381815394</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45571.7381815394</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>100000</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>72</v>
+      </c>
+      <c r="I36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36">
+        <v>3328.84542453116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45571.7467923611</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45571.7467923611</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>200</v>
+      </c>
+      <c r="F37">
+        <v>100000</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37">
+        <v>3317.06573170732</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45571.7554893634</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45571.7554893634</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <v>100000</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>75</v>
+      </c>
+      <c r="I38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J38">
+        <v>3381.76628909433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45571.7642028125</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45571.7642028125</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>200</v>
+      </c>
+      <c r="F39">
+        <v>100000</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39">
+        <v>3284.2452229142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45571.7729269987</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45571.7729269987</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>200</v>
+      </c>
+      <c r="F40">
+        <v>100000</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40">
+        <v>3348.6549314059</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10">
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41">
+        <f>MIN(J35:J40)</f>
+        <v>3284.2452229142</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10">
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+      <c r="J42">
+        <f>MAX(J36:J40)</f>
+        <v>3381.76628909433</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10">
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43">
+        <f>AVERAGE(J36:J40)</f>
+        <v>3332.11551993058</v>
       </c>
     </row>
   </sheetData>
